--- a/ZoningAtlas/raw_data/Excel_workbooks/Orange_Orange_features.xlsx
+++ b/ZoningAtlas/raw_data/Excel_workbooks/Orange_Orange_features.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lornaepeters/Documents/Vermont Zoning Atlas/Orange County/Orange/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybird/ZoningAtlas/VT_Zoning_Atlas/ZoningAtlas/raw_data/Excel_workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1578AA3-B048-AD4A-9439-C423C3C16CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F4C4F3-91EA-E14D-9408-A3A34AEE1B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15940" activeTab="1" xr2:uid="{FC763E2B-1BB8-D248-8DD1-F66FE797A262}"/>
   </bookViews>
@@ -10280,10 +10280,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05389331-E65F-9747-B96F-F1FC2DF92AD8}">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10291,7 +10291,7 @@
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -10299,7 +10299,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -10307,7 +10307,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>71</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>72</v>
       </c>
@@ -10323,7 +10323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -10331,27 +10331,27 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -10359,98 +10359,22 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>80</v>
       </c>
-      <c r="B12">
-        <f>Districts!B1</f>
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <f>Districts!D1</f>
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <f>Districts!F1</f>
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <f>Districts!H1</f>
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <f>Districts!J1</f>
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <f>Districts!L1</f>
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <f>Districts!N1</f>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f>Districts!P1</f>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f>Districts!R1</f>
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <f>Districts!T1</f>
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <f>Districts!V1</f>
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <f>Districts!X1</f>
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <f>Districts!Z1</f>
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <f>Districts!AB1</f>
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <f>Districts!AD1</f>
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <f>Districts!AF1</f>
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <f>Districts!AH1</f>
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <f>Districts!AJ1</f>
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <f>Districts!AL1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>103</v>
       </c>
